--- a/test_plan.xlsx
+++ b/test_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user1/Documents/learning/learn_iai_drive_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190C2092-F1E5-7B4B-8E98-7CA1F19FFB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D75467-BD78-704C-B6D2-2102F945AE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="580" windowWidth="27640" windowHeight="16040" xr2:uid="{573798C2-FE03-9345-9130-5C411E730E9A}"/>
+    <workbookView xWindow="1160" yWindow="580" windowWidth="27640" windowHeight="16040" xr2:uid="{573798C2-FE03-9345-9130-5C411E730E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>case no.</t>
   </si>
@@ -207,6 +207,60 @@
   </si>
   <si>
     <t>Verify point x negative large, y large</t>
+  </si>
+  <si>
+    <t>TEST00301</t>
+  </si>
+  <si>
+    <t>Verify agent_attributes length 0</t>
+  </si>
+  <si>
+    <t>TEST00302</t>
+  </si>
+  <si>
+    <t>Verify agent_attributes length negative</t>
+  </si>
+  <si>
+    <t>TEST00303</t>
+  </si>
+  <si>
+    <t>Verify agent_attributes length large</t>
+  </si>
+  <si>
+    <t>TEST00311</t>
+  </si>
+  <si>
+    <t>Verify agent_attributes width 0</t>
+  </si>
+  <si>
+    <t>TEST00312</t>
+  </si>
+  <si>
+    <t>Verify agent_attributes width negative</t>
+  </si>
+  <si>
+    <t>TEST00313</t>
+  </si>
+  <si>
+    <t>Verify agent_attributes width large</t>
+  </si>
+  <si>
+    <t>TEST00321</t>
+  </si>
+  <si>
+    <t>Verify agent_attributes rear_axis_offset </t>
+  </si>
+  <si>
+    <t>TEST00322</t>
+  </si>
+  <si>
+    <t>Verify agent_attributes rear_axis_offset negative</t>
+  </si>
+  <si>
+    <t>TEST00323</t>
+  </si>
+  <si>
+    <t>Verify agent_attributes rear_axis_offset large</t>
   </si>
 </sst>
 </file>
@@ -558,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C64D70-901D-CD43-B001-059107A9FAF4}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -854,6 +908,105 @@
         <v>6</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_plan.xlsx
+++ b/test_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user1/Documents/learning/learn_iai_drive_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D75467-BD78-704C-B6D2-2102F945AE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB42A345-A0FB-724F-BB31-E4C4291ED526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="580" windowWidth="27640" windowHeight="16040" xr2:uid="{573798C2-FE03-9345-9130-5C411E730E9A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
   <si>
     <t>case no.</t>
   </si>
@@ -261,19 +261,79 @@
   </si>
   <si>
     <t>Verify agent_attributes rear_axis_offset large</t>
+  </si>
+  <si>
+    <t>TEST01001</t>
+  </si>
+  <si>
+    <t>Verify 2 NPCs with traffic none</t>
+  </si>
+  <si>
+    <t>TEST01002</t>
+  </si>
+  <si>
+    <t>Verify 2 NPCs with traffic green</t>
+  </si>
+  <si>
+    <t>TEST01003</t>
+  </si>
+  <si>
+    <t>Verify 2 NPCs with traffic yellow</t>
+  </si>
+  <si>
+    <t>TEST01004</t>
+  </si>
+  <si>
+    <t>Verify 2 NPCs with traffic red</t>
+  </si>
+  <si>
+    <t>TEST01005</t>
+  </si>
+  <si>
+    <t>Verify 2 NPCs with traffic empty</t>
+  </si>
+  <si>
+    <t>TEST01006</t>
+  </si>
+  <si>
+    <t>Verify crash: 2 NPCs with traffic invalid id</t>
+  </si>
+  <si>
+    <t>{"detail":"Traffic light id 1 not found for location iai:drake_street_and_pacific_blvd"}</t>
+  </si>
+  <si>
+    <t>TEST01007</t>
+  </si>
+  <si>
+    <t>Verify 2 NPCs with traffic yellow switch to red</t>
+  </si>
+  <si>
+    <t>TEST01008</t>
+  </si>
+  <si>
+    <t>Verify crash: 2 NPCs with traffic invalid format</t>
+  </si>
+  <si>
+    <t>1 validation error for Drive traffic_lights_states -&gt; 103760</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -296,8 +356,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C64D70-901D-CD43-B001-059107A9FAF4}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,7 +1002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -952,7 +1013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -963,7 +1024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -974,7 +1035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -985,7 +1046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -996,7 +1057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -1005,6 +1066,100 @@
       </c>
       <c r="C40" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/test_plan.xlsx
+++ b/test_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user1/Documents/learning/learn_iai_drive_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB42A345-A0FB-724F-BB31-E4C4291ED526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FBE848-BFB7-9F4D-B4CF-7E30BA259602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="580" windowWidth="27640" windowHeight="16040" xr2:uid="{573798C2-FE03-9345-9130-5C411E730E9A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="98">
   <si>
     <t>case no.</t>
   </si>
@@ -315,6 +315,18 @@
   </si>
   <si>
     <t>1 validation error for Drive traffic_lights_states -&gt; 103760</t>
+  </si>
+  <si>
+    <t>TEST01101</t>
+  </si>
+  <si>
+    <t>Verify 2 NPCs with get_birdview False</t>
+  </si>
+  <si>
+    <t>TEST01102</t>
+  </si>
+  <si>
+    <t>Verify 2 NPCs with get_birdview True</t>
   </si>
 </sst>
 </file>
@@ -673,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C64D70-901D-CD43-B001-059107A9FAF4}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="A51" sqref="A51:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1162,6 +1174,28 @@
         <v>93</v>
       </c>
     </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_plan.xlsx
+++ b/test_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user1/Documents/learning/learn_iai_drive_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FBE848-BFB7-9F4D-B4CF-7E30BA259602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EBD78A-EFA5-E741-8F15-CC024BE63872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="580" windowWidth="27640" windowHeight="16040" xr2:uid="{573798C2-FE03-9345-9130-5C411E730E9A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
   <si>
     <t>case no.</t>
   </si>
@@ -327,6 +327,18 @@
   </si>
   <si>
     <t>Verify 2 NPCs with get_birdview True</t>
+  </si>
+  <si>
+    <t>TEST01201</t>
+  </si>
+  <si>
+    <t>Verify 2 NPCs with get_infractions False</t>
+  </si>
+  <si>
+    <t>TEST01202</t>
+  </si>
+  <si>
+    <t>Verify 2 NPCs with get_infractions True</t>
   </si>
 </sst>
 </file>
@@ -685,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C64D70-901D-CD43-B001-059107A9FAF4}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:B52"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1196,6 +1208,28 @@
         <v>6</v>
       </c>
     </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_plan.xlsx
+++ b/test_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user1/Documents/learning/learn_iai_drive_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EBD78A-EFA5-E741-8F15-CC024BE63872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF8CA1B-F46E-9241-B2C7-B06972AD5B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="580" windowWidth="27640" windowHeight="16040" xr2:uid="{573798C2-FE03-9345-9130-5C411E730E9A}"/>
   </bookViews>
@@ -700,7 +700,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:B55"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/test_plan.xlsx
+++ b/test_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user1/Documents/learning/learn_iai_drive_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF8CA1B-F46E-9241-B2C7-B06972AD5B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C772D175-D44D-6F43-B52B-894F3ACA9648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="580" windowWidth="27640" windowHeight="16040" xr2:uid="{573798C2-FE03-9345-9130-5C411E730E9A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="114">
   <si>
     <t>case no.</t>
   </si>
@@ -339,6 +339,42 @@
   </si>
   <si>
     <t>Verify 2 NPCs with get_infractions True</t>
+  </si>
+  <si>
+    <t>TEST01301</t>
+  </si>
+  <si>
+    <t>Verify 2 NPCs with rendering_center</t>
+  </si>
+  <si>
+    <t>TEST01302</t>
+  </si>
+  <si>
+    <t>Verify 2 NPCs with rendering_center 0</t>
+  </si>
+  <si>
+    <t>TEST01303</t>
+  </si>
+  <si>
+    <t>Verify 2 NPCs with rendering_center negative</t>
+  </si>
+  <si>
+    <t>TEST01304</t>
+  </si>
+  <si>
+    <t>Verify 2 NPCs with rendering_center large</t>
+  </si>
+  <si>
+    <t>TEST01305</t>
+  </si>
+  <si>
+    <t>Verify 2 NPCs with rendering_center ('9995', '99999996')</t>
+  </si>
+  <si>
+    <t>TEST01306</t>
+  </si>
+  <si>
+    <t>Verify crash: 2 NPCs with rendering_center invalid format 2</t>
   </si>
 </sst>
 </file>
@@ -697,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C64D70-901D-CD43-B001-059107A9FAF4}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -749,37 +785,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -790,105 +812,108 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -896,10 +921,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -907,10 +932,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -918,32 +943,32 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="C21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -951,32 +976,32 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -984,32 +1009,32 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1017,217 +1042,294 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>64</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>65</v>
       </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>66</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>67</v>
       </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>68</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>69</v>
       </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>70</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>71</v>
       </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>72</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>73</v>
       </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>74</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>75</v>
       </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>76</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>77</v>
       </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>78</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>79</v>
       </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>80</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>81</v>
       </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>82</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>83</v>
       </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>84</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>85</v>
       </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>86</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>90</v>
       </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" t="s">
-        <v>87</v>
-      </c>
       <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>96</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>97</v>
       </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="C53" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>100</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>101</v>
       </c>
-      <c r="C55" t="s">
-        <v>6</v>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/test_plan.xlsx
+++ b/test_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user1/Documents/learning/learn_iai_drive_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C772D175-D44D-6F43-B52B-894F3ACA9648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FC8BE3-CA3D-294B-9058-94B4263B6448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="580" windowWidth="27640" windowHeight="16040" xr2:uid="{573798C2-FE03-9345-9130-5C411E730E9A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="124">
   <si>
     <t>case no.</t>
   </si>
@@ -374,26 +374,50 @@
     <t>TEST01306</t>
   </si>
   <si>
-    <t>Verify crash: 2 NPCs with rendering_center invalid format 2</t>
+    <t>TEST01401</t>
+  </si>
+  <si>
+    <t>TEST01402</t>
+  </si>
+  <si>
+    <t>TEST01403</t>
+  </si>
+  <si>
+    <t>TEST01404</t>
+  </si>
+  <si>
+    <t>Verify crash: 2 NPCs with rendering_center 0</t>
+  </si>
+  <si>
+    <t>TEST01405</t>
+  </si>
+  <si>
+    <t>Verify crash: 2 NPCs with rendering_center invalid format</t>
+  </si>
+  <si>
+    <t>TEST01406</t>
+  </si>
+  <si>
+    <t>Verify 2 NPCs with rendering_center '9999099.087654'</t>
+  </si>
+  <si>
+    <t>1 validation error for Drive rendering_fov</t>
+  </si>
+  <si>
+    <t>1 validation error for Drive rendering_center -&gt; 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -416,9 +440,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C64D70-901D-CD43-B001-059107A9FAF4}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1194,7 +1217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -1204,11 +1227,11 @@
       <c r="C49" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -1218,7 +1241,7 @@
       <c r="C50" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1326,10 +1349,85 @@
         <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/test_plan.xlsx
+++ b/test_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user1/Documents/learning/learn_iai_drive_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FC8BE3-CA3D-294B-9058-94B4263B6448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF560C8F-3D20-C04C-ACC4-85E9853BA283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="580" windowWidth="27640" windowHeight="16040" xr2:uid="{573798C2-FE03-9345-9130-5C411E730E9A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="135">
   <si>
     <t>case no.</t>
   </si>
@@ -405,6 +405,39 @@
   </si>
   <si>
     <t>1 validation error for Drive rendering_center -&gt; 0</t>
+  </si>
+  <si>
+    <t>TEST01501</t>
+  </si>
+  <si>
+    <t>Verify 2 NPCs with random_seed</t>
+  </si>
+  <si>
+    <t>TEST01502</t>
+  </si>
+  <si>
+    <t>Verify 2 NPCs with random_seed 0</t>
+  </si>
+  <si>
+    <t>TEST01503</t>
+  </si>
+  <si>
+    <t>Verify crash: 2 NPCs with random_seed negative</t>
+  </si>
+  <si>
+    <t>TEST01504</t>
+  </si>
+  <si>
+    <t>TEST01505</t>
+  </si>
+  <si>
+    <t>Verify crash: 2 NPCs with random_seed invalid format</t>
+  </si>
+  <si>
+    <t>1 validation error for Drive random_seed</t>
+  </si>
+  <si>
+    <t>Verify crash: 2 NPCs with random_seed big large 899999999999</t>
   </si>
 </sst>
 </file>
@@ -756,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C64D70-901D-CD43-B001-059107A9FAF4}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1430,6 +1463,70 @@
         <v>122</v>
       </c>
     </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_plan.xlsx
+++ b/test_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user1/Documents/learning/learn_iai_drive_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF560C8F-3D20-C04C-ACC4-85E9853BA283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2DDBED-B3BA-CE4F-91DD-5C5E08516FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="580" windowWidth="27640" windowHeight="16040" xr2:uid="{573798C2-FE03-9345-9130-5C411E730E9A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="137">
   <si>
     <t>case no.</t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t>Verify crash: 2 NPCs with random_seed big large 899999999999</t>
+  </si>
+  <si>
+    <t>TEST02001</t>
+  </si>
+  <si>
+    <t>Verify 25 NPCs</t>
   </si>
 </sst>
 </file>
@@ -789,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C64D70-901D-CD43-B001-059107A9FAF4}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1527,6 +1533,17 @@
         <v>133</v>
       </c>
     </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>135</v>
+      </c>
+      <c r="B78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
